--- a/code/outputs/similarity_score_confidence_descriptive_stats.xlsx
+++ b/code/outputs/similarity_score_confidence_descriptive_stats.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dissertacao-santos-anderson-2024\code\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A22CFF-8FC8-4B31-925C-EA42C678F233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>similarity_score</t>
+  </si>
+  <si>
+    <t>similarity_score_confidence</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
   <si>
     <t>25%</t>
   </si>
@@ -31,42 +43,23 @@
     <t>75%</t>
   </si>
   <si>
-    <t>Cont.</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Elementos</t>
-  </si>
-  <si>
-    <t>Tipo de fatos</t>
-  </si>
-  <si>
-    <t>Nomes</t>
-  </si>
-  <si>
-    <t>Regras operativas</t>
-  </si>
-  <si>
-    <t>Termos</t>
+    <t>max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,22 +84,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -114,33 +102,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -247,10 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,163 +400,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.36328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>550</v>
+      </c>
+      <c r="C2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.9210909090909092</v>
+      </c>
+      <c r="C3">
+        <v>0.889818181818182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.05113191366260862</v>
+      </c>
+      <c r="C4">
+        <v>0.02966055128784903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.95</v>
+      </c>
+      <c r="C7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="B8">
+        <v>0.95</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>160</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.89156250000000004</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.6434846332614292E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.90099999999999991</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.0710678118654649E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.87916666666666654</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.953261148701446E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>280</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.88910714285714287</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.3024200191058208E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
